--- a/docs/Cronograma_G7_P3_Appraisal.xlsx
+++ b/docs/Cronograma_G7_P3_Appraisal.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>módulo/objetivo</t>
   </si>
@@ -178,9 +178,15 @@
     <t>C4</t>
   </si>
   <si>
+    <t>KNN</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
+    <t>Desenvolvimento do KNN(Leonardo Souza)</t>
+  </si>
+  <si>
     <t>Reviewer</t>
   </si>
   <si>
@@ -200,9 +206,6 @@
   </si>
   <si>
     <t>D4</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">Relatórios/
@@ -229,7 +232,10 @@
     <t>E3</t>
   </si>
   <si>
-    <t>Teste funcional da framework</t>
+    <t>Teste funcional da framework(Pipeline)</t>
+  </si>
+  <si>
+    <t>Desenvolvimento em conjunto sobre a PipeLine(Lucas Cruz e Leonardo Souza)</t>
   </si>
   <si>
     <t>E4</t>
@@ -442,6 +448,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor rgb="FF6AA84F"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFE599"/>
         <bgColor rgb="FFFFE599"/>
       </patternFill>
@@ -450,12 +462,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF6AA84F"/>
-        <bgColor rgb="FF6AA84F"/>
       </patternFill>
     </fill>
     <fill>
@@ -599,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -698,45 +704,51 @@
     <xf borderId="5" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="10" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="13" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="14" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="10" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="13" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="10" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -761,16 +773,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="4" fillId="10" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="8" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="14" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -779,9 +788,6 @@
     <xf borderId="0" fillId="10" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -797,6 +803,12 @@
     <xf borderId="0" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="15" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="15" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -837,6 +849,12 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -877,7 +895,7 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="15" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="13" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -952,16 +970,6 @@
       <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF5B95F9"/>
-          <bgColor rgb="FF5B95F9"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
         </patternFill>
@@ -978,60 +986,82 @@
       </fill>
       <border/>
     </dxf>
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B95F9"/>
+          <bgColor rgb="FF5B95F9"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
   </dxfs>
-  <tableStyles count="11">
-    <tableStyle count="3" pivot="0" name="Página1-style">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+  <tableStyles count="14">
+    <tableStyle count="2" pivot="0" name="Página1-style">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Página1-style 2">
-      <tableStyleElement dxfId="4" type="headerRow"/>
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Página1-style 3">
       <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 3">
-      <tableStyleElement dxfId="4" type="headerRow"/>
+    <tableStyle count="2" pivot="0" name="Página1-style 4">
       <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+      <tableStyleElement dxfId="4" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 4">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
-    </tableStyle>
-    <tableStyle count="2" pivot="0" name="Página1-style 5">
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+    <tableStyle count="3" pivot="0" name="Página1-style 5">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Página1-style 6">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="2" pivot="0" name="Página1-style 7">
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+    <tableStyle count="3" pivot="0" name="Página1-style 7">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 8">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+    <tableStyle count="2" pivot="0" name="Página1-style 8">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="Página1-style 9">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+    <tableStyle count="2" pivot="0" name="Página1-style 9">
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Página1-style 10">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
     <tableStyle count="3" pivot="0" name="Página1-style 11">
-      <tableStyleElement dxfId="4" type="headerRow"/>
-      <tableStyleElement dxfId="5" type="firstRowStripe"/>
-      <tableStyleElement dxfId="6" type="secondRowStripe"/>
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Página1-style 12">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Página1-style 13">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="3" pivot="0" name="Página1-style 14">
+      <tableStyleElement dxfId="6" type="headerRow"/>
+      <tableStyleElement dxfId="4" type="firstRowStripe"/>
+      <tableStyleElement dxfId="5" type="secondRowStripe"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -1042,21 +1072,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CR1:CR23" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CA30" displayName="Table_1" id="1">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
   <tableStyleInfo name="Página1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CW1:CW23" displayName="Table_10" id="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BV1:BV23" displayName="Table_10" id="10">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -1070,7 +1095,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CI1:CI23" displayName="Table_11" id="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="DB1:DB23" displayName="Table_11" id="11">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -1083,8 +1108,50 @@
 </table>
 </file>
 
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CR1:CR23" displayName="Table_12" id="12">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 12" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CW1:CW23" displayName="Table_13" id="13">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 13" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CM1:CM23" displayName="Table_14" id="14">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 14" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CM1:CM23" displayName="Table_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CA1:CA23" displayName="Table_2" id="2">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -1098,11 +1165,29 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CA1:CA23" displayName="Table_3" id="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CJ23" displayName="Table_3" id="3">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
   <tableStyleInfo name="Página1-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CB23" displayName="Table_4" id="4">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BN1:BN23" displayName="Table_5" id="5">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -1111,32 +1196,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CE1:CE23" displayName="Table_4" id="4">
-  <tableColumns count="1">
-    <tableColumn name="Column1" id="1"/>
-  </tableColumns>
-  <tableStyleInfo name="Página1-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BY2:BZ31" displayName="Table_5" id="5">
-  <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Página1-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BN1:BN23" displayName="Table_6" id="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CE1:CE23" displayName="Table_6" id="6">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
@@ -1150,21 +1211,11 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CY2:CZ31" displayName="Table_7" id="7">
-  <tableColumns count="2">
-    <tableColumn name="Column1" id="1"/>
-    <tableColumn name="Column2" id="2"/>
-  </tableColumns>
-  <tableStyleInfo name="Página1-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BV1:BV23" displayName="Table_8" id="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CI1:CI23" displayName="Table_7" id="7">
   <tableColumns count="1">
     <tableColumn name="Column1" id="1"/>
   </tableColumns>
-  <tableStyleInfo name="Página1-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Página1-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
@@ -1173,17 +1224,23 @@
 </table>
 </file>
 
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="BY2:BZ31" displayName="Table_8" id="8">
+  <tableColumns count="2">
+    <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
+  </tableColumns>
+  <tableStyleInfo name="Página1-style 8" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="DB1:DB23" displayName="Table_9" id="9">
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="CY2:CZ31" displayName="Table_9" id="9">
+  <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
+    <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="Página1-style 9" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" headerRowCount="1"/>
-    </ext>
-  </extLst>
 </table>
 </file>
 
@@ -2126,7 +2183,7 @@
       <c r="E5" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="18" t="s">
         <v>12</v>
       </c>
@@ -2141,12 +2198,12 @@
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="30"/>
-      <c r="Q5" s="39"/>
+      <c r="Q5" s="40"/>
       <c r="R5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
       <c r="W5" s="30"/>
@@ -2247,11 +2304,11 @@
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="16"/>
-      <c r="F6" s="36"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="42" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="20"/>
@@ -2262,11 +2319,11 @@
       <c r="N6" s="20"/>
       <c r="O6" s="20"/>
       <c r="P6" s="20"/>
-      <c r="Q6" s="42"/>
+      <c r="Q6" s="43"/>
       <c r="R6" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="S6" s="43"/>
+      <c r="S6" s="44"/>
       <c r="T6" s="20"/>
       <c r="U6" s="22"/>
       <c r="V6" s="22"/>
@@ -2368,11 +2425,11 @@
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="36"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
@@ -2381,9 +2438,9 @@
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="30"/>
-      <c r="Q7" s="39"/>
-      <c r="R7" s="44"/>
-      <c r="S7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="46"/>
+      <c r="S7" s="41"/>
       <c r="T7" s="30"/>
       <c r="U7" s="22"/>
       <c r="V7" s="22"/>
@@ -2485,11 +2542,11 @@
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="36"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="42"/>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
@@ -2602,11 +2659,11 @@
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="36"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="42"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
@@ -2719,11 +2776,11 @@
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="36"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="42"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="20"/>
@@ -2835,14 +2892,14 @@
       <c r="B11" s="29"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="36"/>
+      <c r="F11" s="39"/>
       <c r="G11" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="46" t="s">
+      <c r="H11" s="48" t="s">
         <v>22</v>
       </c>
       <c r="I11" s="30"/>
@@ -2853,7 +2910,7 @@
       <c r="N11" s="30"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
-      <c r="Q11" s="39"/>
+      <c r="Q11" s="40"/>
       <c r="R11" s="31" t="s">
         <v>21</v>
       </c>
@@ -2960,12 +3017,12 @@
       <c r="B12" s="15"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="36"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="50" t="s">
         <v>25</v>
       </c>
       <c r="I12" s="20"/>
@@ -2976,7 +3033,7 @@
       <c r="N12" s="20"/>
       <c r="O12" s="20"/>
       <c r="P12" s="20"/>
-      <c r="Q12" s="42"/>
+      <c r="Q12" s="43"/>
       <c r="R12" s="37" t="s">
         <v>21</v>
       </c>
@@ -3083,12 +3140,12 @@
       <c r="B13" s="29"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="36"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="39"/>
       <c r="G13" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="52" t="s">
         <v>27</v>
       </c>
       <c r="I13" s="30"/>
@@ -3204,12 +3261,12 @@
       <c r="B14" s="15"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="36"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="52" t="s">
         <v>29</v>
       </c>
       <c r="I14" s="20"/>
@@ -3319,18 +3376,18 @@
       <c r="DI14" s="27"/>
     </row>
     <row r="15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52" t="s">
+      <c r="A15" s="53"/>
+      <c r="B15" s="54" t="s">
         <v>30</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="36"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="39"/>
       <c r="G15" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="52" t="s">
         <v>32</v>
       </c>
       <c r="I15" s="30"/>
@@ -3440,18 +3497,18 @@
       <c r="DI15" s="35"/>
     </row>
     <row r="16">
-      <c r="A16" s="53"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="36"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="39"/>
       <c r="G16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="52" t="s">
         <v>35</v>
       </c>
       <c r="I16" s="20"/>
@@ -3561,18 +3618,18 @@
       <c r="DI16" s="27"/>
     </row>
     <row r="17">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55" t="s">
+      <c r="A17" s="56"/>
+      <c r="B17" s="57" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="36"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="39"/>
       <c r="G17" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="52" t="s">
         <v>38</v>
       </c>
       <c r="I17" s="30"/>
@@ -3682,18 +3739,18 @@
       <c r="DI17" s="35"/>
     </row>
     <row r="18">
-      <c r="A18" s="56"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="36"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="20"/>
@@ -3803,18 +3860,18 @@
       <c r="DI18" s="27"/>
     </row>
     <row r="19">
-      <c r="A19" s="57"/>
-      <c r="B19" s="51" t="s">
+      <c r="A19" s="59"/>
+      <c r="B19" s="53" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="45"/>
       <c r="G19" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="50"/>
+      <c r="H19" s="52"/>
       <c r="I19" s="30"/>
       <c r="J19" s="30"/>
       <c r="K19" s="30"/>
@@ -3922,20 +3979,20 @@
       <c r="DI19" s="35"/>
     </row>
     <row r="20">
-      <c r="A20" s="59"/>
-      <c r="B20" s="60" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="61"/>
+      <c r="C20" s="62"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="36"/>
+      <c r="F20" s="39"/>
       <c r="G20" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="62" t="s">
+      <c r="H20" s="63" t="s">
         <v>46</v>
       </c>
       <c r="I20" s="20"/>
@@ -4051,18 +4108,18 @@
       <c r="DI20" s="27"/>
     </row>
     <row r="21">
-      <c r="A21" s="63"/>
-      <c r="B21" s="55" t="s">
+      <c r="A21" s="64"/>
+      <c r="B21" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="64"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="36"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="39"/>
       <c r="G21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="62" t="s">
+      <c r="H21" s="63" t="s">
         <v>50</v>
       </c>
       <c r="I21" s="30"/>
@@ -4178,18 +4235,18 @@
       <c r="DI21" s="35"/>
     </row>
     <row r="22">
-      <c r="A22" s="65"/>
+      <c r="A22" s="39"/>
       <c r="B22" s="66" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="36"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="45"/>
       <c r="G22" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="62" t="s">
+      <c r="H22" s="63" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="20"/>
@@ -4313,12 +4370,14 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="36"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="H23" s="62"/>
+      <c r="H23" s="63" t="s">
+        <v>55</v>
+      </c>
       <c r="I23" s="30"/>
       <c r="J23" s="30"/>
       <c r="K23" s="30"/>
@@ -4338,7 +4397,7 @@
       <c r="Y23" s="30"/>
       <c r="Z23" s="30"/>
       <c r="AA23" s="70" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AB23" s="30"/>
       <c r="AC23" s="30"/>
@@ -4377,32 +4436,36 @@
       <c r="BJ23" s="32"/>
       <c r="BK23" s="22"/>
       <c r="BL23" s="22"/>
-      <c r="BM23" s="32"/>
-      <c r="BN23" s="33"/>
-      <c r="BO23" s="33"/>
-      <c r="BP23" s="33"/>
-      <c r="BQ23" s="33"/>
-      <c r="BR23" s="33"/>
-      <c r="BS23" s="33"/>
-      <c r="BT23" s="33"/>
-      <c r="BU23" s="33"/>
-      <c r="BV23" s="33"/>
-      <c r="BW23" s="33"/>
-      <c r="BX23" s="33"/>
+      <c r="BM23" s="71"/>
+      <c r="BN23" s="71"/>
+      <c r="BO23" s="71"/>
+      <c r="BP23" s="71"/>
+      <c r="BQ23" s="71"/>
+      <c r="BR23" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="BS23" s="71"/>
+      <c r="BT23" s="71"/>
+      <c r="BU23" s="71"/>
+      <c r="BV23" s="71"/>
+      <c r="BW23" s="71"/>
+      <c r="BX23" s="71"/>
       <c r="BY23" s="22"/>
       <c r="BZ23" s="22"/>
-      <c r="CA23" s="34"/>
-      <c r="CB23" s="35"/>
-      <c r="CC23" s="35"/>
-      <c r="CD23" s="32"/>
-      <c r="CE23" s="34"/>
-      <c r="CF23" s="35"/>
-      <c r="CG23" s="35"/>
-      <c r="CH23" s="32"/>
-      <c r="CI23" s="34"/>
-      <c r="CJ23" s="35"/>
-      <c r="CK23" s="35"/>
-      <c r="CL23" s="32"/>
+      <c r="CA23" s="71"/>
+      <c r="CB23" s="71"/>
+      <c r="CC23" s="71"/>
+      <c r="CD23" s="71"/>
+      <c r="CE23" s="71"/>
+      <c r="CF23" s="72" t="s">
+        <v>57</v>
+      </c>
+      <c r="CG23" s="71"/>
+      <c r="CH23" s="71"/>
+      <c r="CI23" s="71"/>
+      <c r="CJ23" s="71"/>
+      <c r="CK23" s="71"/>
+      <c r="CL23" s="71"/>
       <c r="CM23" s="22"/>
       <c r="CN23" s="22"/>
       <c r="CO23" s="35"/>
@@ -4428,74 +4491,74 @@
       <c r="DI23" s="35"/>
     </row>
     <row r="24">
-      <c r="A24" s="71"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74" t="s">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="45"/>
+      <c r="G24" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="75" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="76"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
-      <c r="P24" s="76"/>
-      <c r="Q24" s="76"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="76"/>
-      <c r="T24" s="76"/>
+      <c r="H24" s="77" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="78"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="78"/>
+      <c r="O24" s="78"/>
+      <c r="P24" s="78"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="78"/>
+      <c r="S24" s="78"/>
+      <c r="T24" s="78"/>
       <c r="U24" s="22"/>
       <c r="V24" s="22"/>
-      <c r="W24" s="76"/>
-      <c r="X24" s="76"/>
-      <c r="Y24" s="76"/>
-      <c r="Z24" s="76"/>
+      <c r="W24" s="78"/>
+      <c r="X24" s="78"/>
+      <c r="Y24" s="78"/>
+      <c r="Z24" s="78"/>
       <c r="AA24" s="21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB24" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC24" s="76"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-      <c r="AG24" s="76"/>
-      <c r="AH24" s="76"/>
+        <v>60</v>
+      </c>
+      <c r="AC24" s="78"/>
+      <c r="AD24" s="78"/>
+      <c r="AE24" s="78"/>
+      <c r="AF24" s="78"/>
+      <c r="AG24" s="78"/>
+      <c r="AH24" s="78"/>
       <c r="AI24" s="22"/>
       <c r="AJ24" s="22"/>
-      <c r="AK24" s="76"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="76"/>
-      <c r="AP24" s="76"/>
-      <c r="AQ24" s="76"/>
-      <c r="AR24" s="76"/>
-      <c r="AS24" s="76"/>
-      <c r="AT24" s="76"/>
-      <c r="AU24" s="76"/>
-      <c r="AV24" s="76"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="78"/>
+      <c r="AM24" s="78"/>
+      <c r="AN24" s="78"/>
+      <c r="AO24" s="78"/>
+      <c r="AP24" s="78"/>
+      <c r="AQ24" s="78"/>
+      <c r="AR24" s="78"/>
+      <c r="AS24" s="78"/>
+      <c r="AT24" s="78"/>
+      <c r="AU24" s="78"/>
+      <c r="AV24" s="78"/>
       <c r="AW24" s="22"/>
       <c r="AX24" s="22"/>
-      <c r="AY24" s="76"/>
-      <c r="AZ24" s="76"/>
-      <c r="BA24" s="76"/>
-      <c r="BB24" s="76"/>
-      <c r="BC24" s="76"/>
-      <c r="BD24" s="76"/>
-      <c r="BE24" s="76"/>
-      <c r="BF24" s="76"/>
+      <c r="AY24" s="78"/>
+      <c r="AZ24" s="78"/>
+      <c r="BA24" s="78"/>
+      <c r="BB24" s="78"/>
+      <c r="BC24" s="78"/>
+      <c r="BD24" s="78"/>
+      <c r="BE24" s="78"/>
+      <c r="BF24" s="78"/>
       <c r="BG24" s="24"/>
       <c r="BH24" s="24"/>
       <c r="BI24" s="24"/>
@@ -4503,122 +4566,122 @@
       <c r="BK24" s="22"/>
       <c r="BL24" s="22"/>
       <c r="BM24" s="24"/>
-      <c r="BN24" s="77"/>
-      <c r="BO24" s="77"/>
-      <c r="BP24" s="77"/>
-      <c r="BQ24" s="77"/>
-      <c r="BR24" s="77"/>
-      <c r="BS24" s="77"/>
-      <c r="BT24" s="77"/>
-      <c r="BU24" s="77"/>
-      <c r="BV24" s="77"/>
-      <c r="BW24" s="77"/>
-      <c r="BX24" s="77"/>
+      <c r="BN24" s="79"/>
+      <c r="BO24" s="79"/>
+      <c r="BP24" s="79"/>
+      <c r="BQ24" s="79"/>
+      <c r="BR24" s="79"/>
+      <c r="BS24" s="79"/>
+      <c r="BT24" s="79"/>
+      <c r="BU24" s="79"/>
+      <c r="BV24" s="79"/>
+      <c r="BW24" s="79"/>
+      <c r="BX24" s="79"/>
       <c r="BY24" s="22"/>
       <c r="BZ24" s="22"/>
-      <c r="CA24" s="78"/>
-      <c r="CB24" s="78"/>
-      <c r="CC24" s="78"/>
-      <c r="CD24" s="79"/>
-      <c r="CE24" s="78"/>
-      <c r="CF24" s="78"/>
-      <c r="CG24" s="78"/>
-      <c r="CH24" s="79"/>
-      <c r="CI24" s="78"/>
-      <c r="CJ24" s="78"/>
-      <c r="CK24" s="78"/>
-      <c r="CL24" s="79"/>
+      <c r="CA24" s="80"/>
+      <c r="CB24" s="80"/>
+      <c r="CC24" s="80"/>
+      <c r="CD24" s="81"/>
+      <c r="CE24" s="80"/>
+      <c r="CF24" s="80"/>
+      <c r="CG24" s="80"/>
+      <c r="CH24" s="81"/>
+      <c r="CI24" s="80"/>
+      <c r="CJ24" s="80"/>
+      <c r="CK24" s="80"/>
+      <c r="CL24" s="81"/>
       <c r="CM24" s="22"/>
       <c r="CN24" s="22"/>
-      <c r="CO24" s="78"/>
-      <c r="CP24" s="79"/>
-      <c r="CQ24" s="78"/>
-      <c r="CR24" s="78"/>
-      <c r="CS24" s="78"/>
-      <c r="CT24" s="78"/>
-      <c r="CU24" s="79"/>
-      <c r="CV24" s="78"/>
-      <c r="CW24" s="78"/>
-      <c r="CX24" s="78"/>
+      <c r="CO24" s="80"/>
+      <c r="CP24" s="81"/>
+      <c r="CQ24" s="80"/>
+      <c r="CR24" s="80"/>
+      <c r="CS24" s="80"/>
+      <c r="CT24" s="80"/>
+      <c r="CU24" s="81"/>
+      <c r="CV24" s="80"/>
+      <c r="CW24" s="80"/>
+      <c r="CX24" s="80"/>
       <c r="CY24" s="22"/>
       <c r="CZ24" s="22"/>
-      <c r="DA24" s="78"/>
-      <c r="DB24" s="78"/>
-      <c r="DC24" s="78"/>
-      <c r="DD24" s="78"/>
-      <c r="DE24" s="79"/>
-      <c r="DF24" s="78"/>
-      <c r="DG24" s="79"/>
-      <c r="DH24" s="78"/>
-      <c r="DI24" s="78"/>
+      <c r="DA24" s="80"/>
+      <c r="DB24" s="80"/>
+      <c r="DC24" s="80"/>
+      <c r="DD24" s="80"/>
+      <c r="DE24" s="81"/>
+      <c r="DF24" s="80"/>
+      <c r="DG24" s="81"/>
+      <c r="DH24" s="80"/>
+      <c r="DI24" s="80"/>
     </row>
     <row r="25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="36"/>
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="45"/>
       <c r="G25" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>60</v>
-      </c>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
-      <c r="P25" s="80"/>
-      <c r="Q25" s="80"/>
-      <c r="R25" s="80"/>
-      <c r="S25" s="80"/>
-      <c r="T25" s="80"/>
+        <v>61</v>
+      </c>
+      <c r="H25" s="77" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="82"/>
+      <c r="J25" s="82"/>
+      <c r="K25" s="82"/>
+      <c r="L25" s="82"/>
+      <c r="M25" s="82"/>
+      <c r="N25" s="82"/>
+      <c r="O25" s="82"/>
+      <c r="P25" s="82"/>
+      <c r="Q25" s="82"/>
+      <c r="R25" s="82"/>
+      <c r="S25" s="82"/>
+      <c r="T25" s="82"/>
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
-      <c r="W25" s="80"/>
-      <c r="X25" s="80"/>
-      <c r="Y25" s="80"/>
-      <c r="Z25" s="80"/>
+      <c r="W25" s="82"/>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
       <c r="AA25" s="37" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB25" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="80"/>
-      <c r="AE25" s="80"/>
-      <c r="AF25" s="80"/>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="80"/>
+        <v>60</v>
+      </c>
+      <c r="AC25" s="82"/>
+      <c r="AD25" s="82"/>
+      <c r="AE25" s="82"/>
+      <c r="AF25" s="82"/>
+      <c r="AG25" s="82"/>
+      <c r="AH25" s="82"/>
       <c r="AI25" s="22"/>
       <c r="AJ25" s="22"/>
-      <c r="AK25" s="80"/>
-      <c r="AL25" s="80"/>
-      <c r="AM25" s="80"/>
-      <c r="AN25" s="80"/>
-      <c r="AO25" s="80"/>
-      <c r="AP25" s="80"/>
-      <c r="AQ25" s="80"/>
-      <c r="AR25" s="80"/>
-      <c r="AS25" s="80"/>
-      <c r="AT25" s="80"/>
-      <c r="AU25" s="80"/>
-      <c r="AV25" s="80"/>
+      <c r="AK25" s="82"/>
+      <c r="AL25" s="82"/>
+      <c r="AM25" s="82"/>
+      <c r="AN25" s="82"/>
+      <c r="AO25" s="82"/>
+      <c r="AP25" s="82"/>
+      <c r="AQ25" s="82"/>
+      <c r="AR25" s="82"/>
+      <c r="AS25" s="82"/>
+      <c r="AT25" s="82"/>
+      <c r="AU25" s="82"/>
+      <c r="AV25" s="82"/>
       <c r="AW25" s="22"/>
       <c r="AX25" s="22"/>
-      <c r="AY25" s="80"/>
-      <c r="AZ25" s="80"/>
-      <c r="BA25" s="80"/>
-      <c r="BB25" s="80"/>
-      <c r="BC25" s="80"/>
-      <c r="BD25" s="80"/>
-      <c r="BE25" s="80"/>
-      <c r="BF25" s="80"/>
+      <c r="AY25" s="82"/>
+      <c r="AZ25" s="82"/>
+      <c r="BA25" s="82"/>
+      <c r="BB25" s="82"/>
+      <c r="BC25" s="82"/>
+      <c r="BD25" s="82"/>
+      <c r="BE25" s="82"/>
+      <c r="BF25" s="82"/>
       <c r="BG25" s="32"/>
       <c r="BH25" s="32"/>
       <c r="BI25" s="32"/>
@@ -4626,122 +4689,122 @@
       <c r="BK25" s="22"/>
       <c r="BL25" s="22"/>
       <c r="BM25" s="32"/>
-      <c r="BN25" s="77"/>
-      <c r="BO25" s="77"/>
-      <c r="BP25" s="77"/>
-      <c r="BQ25" s="77"/>
-      <c r="BR25" s="77"/>
-      <c r="BS25" s="77"/>
-      <c r="BT25" s="77"/>
-      <c r="BU25" s="77"/>
-      <c r="BV25" s="77"/>
-      <c r="BW25" s="77"/>
-      <c r="BX25" s="77"/>
+      <c r="BN25" s="79"/>
+      <c r="BO25" s="79"/>
+      <c r="BP25" s="79"/>
+      <c r="BQ25" s="79"/>
+      <c r="BR25" s="79"/>
+      <c r="BS25" s="79"/>
+      <c r="BT25" s="79"/>
+      <c r="BU25" s="79"/>
+      <c r="BV25" s="79"/>
+      <c r="BW25" s="79"/>
+      <c r="BX25" s="79"/>
       <c r="BY25" s="22"/>
       <c r="BZ25" s="22"/>
-      <c r="CA25" s="78"/>
-      <c r="CB25" s="78"/>
-      <c r="CC25" s="78"/>
-      <c r="CD25" s="79"/>
-      <c r="CE25" s="78"/>
-      <c r="CF25" s="78"/>
-      <c r="CG25" s="78"/>
-      <c r="CH25" s="79"/>
-      <c r="CI25" s="78"/>
-      <c r="CJ25" s="78"/>
-      <c r="CK25" s="78"/>
-      <c r="CL25" s="79"/>
+      <c r="CA25" s="80"/>
+      <c r="CB25" s="80"/>
+      <c r="CC25" s="80"/>
+      <c r="CD25" s="81"/>
+      <c r="CE25" s="80"/>
+      <c r="CF25" s="80"/>
+      <c r="CG25" s="80"/>
+      <c r="CH25" s="81"/>
+      <c r="CI25" s="80"/>
+      <c r="CJ25" s="80"/>
+      <c r="CK25" s="80"/>
+      <c r="CL25" s="81"/>
       <c r="CM25" s="22"/>
       <c r="CN25" s="22"/>
-      <c r="CO25" s="78"/>
-      <c r="CP25" s="79"/>
-      <c r="CQ25" s="78"/>
-      <c r="CR25" s="78"/>
-      <c r="CS25" s="78"/>
-      <c r="CT25" s="78"/>
-      <c r="CU25" s="79"/>
-      <c r="CV25" s="78"/>
-      <c r="CW25" s="78"/>
-      <c r="CX25" s="78"/>
+      <c r="CO25" s="80"/>
+      <c r="CP25" s="81"/>
+      <c r="CQ25" s="80"/>
+      <c r="CR25" s="80"/>
+      <c r="CS25" s="80"/>
+      <c r="CT25" s="80"/>
+      <c r="CU25" s="81"/>
+      <c r="CV25" s="80"/>
+      <c r="CW25" s="80"/>
+      <c r="CX25" s="80"/>
       <c r="CY25" s="22"/>
       <c r="CZ25" s="22"/>
-      <c r="DA25" s="78"/>
-      <c r="DB25" s="78"/>
-      <c r="DC25" s="78"/>
-      <c r="DD25" s="78"/>
-      <c r="DE25" s="79"/>
-      <c r="DF25" s="78"/>
-      <c r="DG25" s="79"/>
-      <c r="DH25" s="78"/>
-      <c r="DI25" s="78"/>
+      <c r="DA25" s="80"/>
+      <c r="DB25" s="80"/>
+      <c r="DC25" s="80"/>
+      <c r="DD25" s="80"/>
+      <c r="DE25" s="81"/>
+      <c r="DF25" s="80"/>
+      <c r="DG25" s="81"/>
+      <c r="DH25" s="80"/>
+      <c r="DI25" s="80"/>
     </row>
     <row r="26">
-      <c r="A26" s="71"/>
-      <c r="B26" s="72"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="36"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="45"/>
       <c r="G26" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="75" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="76"/>
-      <c r="Q26" s="76"/>
-      <c r="R26" s="76"/>
-      <c r="S26" s="76"/>
-      <c r="T26" s="76"/>
+      <c r="I26" s="78"/>
+      <c r="J26" s="78"/>
+      <c r="K26" s="78"/>
+      <c r="L26" s="78"/>
+      <c r="M26" s="78"/>
+      <c r="N26" s="78"/>
+      <c r="O26" s="78"/>
+      <c r="P26" s="78"/>
+      <c r="Q26" s="78"/>
+      <c r="R26" s="78"/>
+      <c r="S26" s="78"/>
+      <c r="T26" s="78"/>
       <c r="U26" s="22"/>
       <c r="V26" s="22"/>
-      <c r="W26" s="76"/>
-      <c r="X26" s="76"/>
-      <c r="Y26" s="76"/>
-      <c r="Z26" s="76"/>
+      <c r="W26" s="78"/>
+      <c r="X26" s="78"/>
+      <c r="Y26" s="78"/>
+      <c r="Z26" s="78"/>
       <c r="AA26" s="31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="AB26" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC26" s="76"/>
-      <c r="AD26" s="76"/>
-      <c r="AE26" s="76"/>
-      <c r="AF26" s="76"/>
-      <c r="AG26" s="76"/>
-      <c r="AH26" s="76"/>
+        <v>60</v>
+      </c>
+      <c r="AC26" s="78"/>
+      <c r="AD26" s="78"/>
+      <c r="AE26" s="78"/>
+      <c r="AF26" s="78"/>
+      <c r="AG26" s="78"/>
+      <c r="AH26" s="78"/>
       <c r="AI26" s="22"/>
       <c r="AJ26" s="22"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="76"/>
-      <c r="AP26" s="76"/>
-      <c r="AQ26" s="76"/>
-      <c r="AR26" s="76"/>
-      <c r="AS26" s="76"/>
-      <c r="AT26" s="76"/>
-      <c r="AU26" s="76"/>
-      <c r="AV26" s="76"/>
+      <c r="AK26" s="78"/>
+      <c r="AL26" s="78"/>
+      <c r="AM26" s="78"/>
+      <c r="AN26" s="78"/>
+      <c r="AO26" s="78"/>
+      <c r="AP26" s="78"/>
+      <c r="AQ26" s="78"/>
+      <c r="AR26" s="78"/>
+      <c r="AS26" s="78"/>
+      <c r="AT26" s="78"/>
+      <c r="AU26" s="78"/>
+      <c r="AV26" s="78"/>
       <c r="AW26" s="22"/>
       <c r="AX26" s="22"/>
-      <c r="AY26" s="76"/>
-      <c r="AZ26" s="76"/>
-      <c r="BA26" s="76"/>
-      <c r="BB26" s="76"/>
-      <c r="BC26" s="76"/>
-      <c r="BD26" s="76"/>
-      <c r="BE26" s="76"/>
-      <c r="BF26" s="76"/>
+      <c r="AY26" s="78"/>
+      <c r="AZ26" s="78"/>
+      <c r="BA26" s="78"/>
+      <c r="BB26" s="78"/>
+      <c r="BC26" s="78"/>
+      <c r="BD26" s="78"/>
+      <c r="BE26" s="78"/>
+      <c r="BF26" s="78"/>
       <c r="BG26" s="24"/>
       <c r="BH26" s="24"/>
       <c r="BI26" s="24"/>
@@ -4749,120 +4812,120 @@
       <c r="BK26" s="22"/>
       <c r="BL26" s="22"/>
       <c r="BM26" s="24"/>
-      <c r="BN26" s="77"/>
-      <c r="BO26" s="77"/>
-      <c r="BP26" s="77"/>
-      <c r="BQ26" s="77"/>
-      <c r="BR26" s="77"/>
-      <c r="BS26" s="77"/>
-      <c r="BT26" s="77"/>
-      <c r="BU26" s="77"/>
-      <c r="BV26" s="77"/>
-      <c r="BW26" s="77"/>
-      <c r="BX26" s="77"/>
+      <c r="BN26" s="79"/>
+      <c r="BO26" s="79"/>
+      <c r="BP26" s="79"/>
+      <c r="BQ26" s="79"/>
+      <c r="BR26" s="79"/>
+      <c r="BS26" s="79"/>
+      <c r="BT26" s="79"/>
+      <c r="BU26" s="79"/>
+      <c r="BV26" s="79"/>
+      <c r="BW26" s="79"/>
+      <c r="BX26" s="79"/>
       <c r="BY26" s="22"/>
       <c r="BZ26" s="22"/>
-      <c r="CA26" s="78"/>
-      <c r="CB26" s="78"/>
-      <c r="CC26" s="78"/>
-      <c r="CD26" s="79"/>
-      <c r="CE26" s="78"/>
-      <c r="CF26" s="78"/>
-      <c r="CG26" s="78"/>
-      <c r="CH26" s="79"/>
-      <c r="CI26" s="78"/>
-      <c r="CJ26" s="78"/>
-      <c r="CK26" s="78"/>
-      <c r="CL26" s="79"/>
+      <c r="CA26" s="80"/>
+      <c r="CB26" s="80"/>
+      <c r="CC26" s="80"/>
+      <c r="CD26" s="81"/>
+      <c r="CE26" s="80"/>
+      <c r="CF26" s="80"/>
+      <c r="CG26" s="80"/>
+      <c r="CH26" s="81"/>
+      <c r="CI26" s="80"/>
+      <c r="CJ26" s="80"/>
+      <c r="CK26" s="80"/>
+      <c r="CL26" s="81"/>
       <c r="CM26" s="22"/>
       <c r="CN26" s="22"/>
-      <c r="CO26" s="78"/>
-      <c r="CP26" s="79"/>
-      <c r="CQ26" s="78"/>
-      <c r="CR26" s="78"/>
-      <c r="CS26" s="78"/>
-      <c r="CT26" s="78"/>
-      <c r="CU26" s="79"/>
-      <c r="CV26" s="78"/>
-      <c r="CW26" s="78"/>
-      <c r="CX26" s="78"/>
+      <c r="CO26" s="80"/>
+      <c r="CP26" s="81"/>
+      <c r="CQ26" s="80"/>
+      <c r="CR26" s="80"/>
+      <c r="CS26" s="80"/>
+      <c r="CT26" s="80"/>
+      <c r="CU26" s="81"/>
+      <c r="CV26" s="80"/>
+      <c r="CW26" s="80"/>
+      <c r="CX26" s="80"/>
       <c r="CY26" s="22"/>
       <c r="CZ26" s="22"/>
-      <c r="DA26" s="78"/>
-      <c r="DB26" s="78"/>
-      <c r="DC26" s="78"/>
-      <c r="DD26" s="78"/>
-      <c r="DE26" s="79"/>
-      <c r="DF26" s="78"/>
-      <c r="DG26" s="79"/>
-      <c r="DH26" s="78"/>
-      <c r="DI26" s="78"/>
+      <c r="DA26" s="80"/>
+      <c r="DB26" s="80"/>
+      <c r="DC26" s="80"/>
+      <c r="DD26" s="80"/>
+      <c r="DE26" s="81"/>
+      <c r="DF26" s="80"/>
+      <c r="DG26" s="81"/>
+      <c r="DH26" s="80"/>
+      <c r="DI26" s="80"/>
     </row>
     <row r="27">
-      <c r="A27" s="71"/>
-      <c r="B27" s="72"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="36"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="45"/>
       <c r="G27" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="H27" s="81"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="80"/>
-      <c r="P27" s="80"/>
-      <c r="Q27" s="80"/>
-      <c r="R27" s="80"/>
-      <c r="S27" s="80"/>
-      <c r="T27" s="80"/>
+        <v>64</v>
+      </c>
+      <c r="H27" s="83"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="82"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="82"/>
+      <c r="S27" s="82"/>
+      <c r="T27" s="82"/>
       <c r="U27" s="22"/>
       <c r="V27" s="22"/>
-      <c r="W27" s="80"/>
-      <c r="X27" s="80"/>
-      <c r="Y27" s="80"/>
-      <c r="Z27" s="80"/>
-      <c r="AA27" s="80"/>
-      <c r="AB27" s="80"/>
+      <c r="W27" s="82"/>
+      <c r="X27" s="82"/>
+      <c r="Y27" s="82"/>
+      <c r="Z27" s="82"/>
+      <c r="AA27" s="82"/>
+      <c r="AB27" s="82"/>
       <c r="AC27" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AD27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="AE27" s="80"/>
-      <c r="AF27" s="80"/>
-      <c r="AG27" s="80"/>
-      <c r="AH27" s="80"/>
+      <c r="AE27" s="82"/>
+      <c r="AF27" s="82"/>
+      <c r="AG27" s="82"/>
+      <c r="AH27" s="82"/>
       <c r="AI27" s="22"/>
       <c r="AJ27" s="22"/>
-      <c r="AK27" s="80"/>
-      <c r="AL27" s="80"/>
-      <c r="AM27" s="80"/>
-      <c r="AN27" s="80"/>
-      <c r="AO27" s="80"/>
-      <c r="AP27" s="80"/>
-      <c r="AQ27" s="80"/>
-      <c r="AR27" s="80"/>
-      <c r="AS27" s="80"/>
-      <c r="AT27" s="80"/>
-      <c r="AU27" s="80"/>
-      <c r="AV27" s="80"/>
+      <c r="AK27" s="82"/>
+      <c r="AL27" s="82"/>
+      <c r="AM27" s="82"/>
+      <c r="AN27" s="82"/>
+      <c r="AO27" s="82"/>
+      <c r="AP27" s="82"/>
+      <c r="AQ27" s="82"/>
+      <c r="AR27" s="82"/>
+      <c r="AS27" s="82"/>
+      <c r="AT27" s="82"/>
+      <c r="AU27" s="82"/>
+      <c r="AV27" s="82"/>
       <c r="AW27" s="22"/>
       <c r="AX27" s="22"/>
-      <c r="AY27" s="80"/>
-      <c r="AZ27" s="80"/>
-      <c r="BA27" s="80"/>
-      <c r="BB27" s="80"/>
-      <c r="BC27" s="80"/>
-      <c r="BD27" s="80"/>
-      <c r="BE27" s="80"/>
-      <c r="BF27" s="80"/>
+      <c r="AY27" s="82"/>
+      <c r="AZ27" s="82"/>
+      <c r="BA27" s="82"/>
+      <c r="BB27" s="82"/>
+      <c r="BC27" s="82"/>
+      <c r="BD27" s="82"/>
+      <c r="BE27" s="82"/>
+      <c r="BF27" s="82"/>
       <c r="BG27" s="32"/>
       <c r="BH27" s="32"/>
       <c r="BI27" s="32"/>
@@ -4870,133 +4933,131 @@
       <c r="BK27" s="22"/>
       <c r="BL27" s="22"/>
       <c r="BM27" s="32"/>
-      <c r="BN27" s="77"/>
-      <c r="BO27" s="77"/>
-      <c r="BP27" s="77"/>
-      <c r="BQ27" s="77"/>
-      <c r="BR27" s="77"/>
-      <c r="BS27" s="77"/>
-      <c r="BT27" s="77"/>
-      <c r="BU27" s="77"/>
-      <c r="BV27" s="77"/>
-      <c r="BW27" s="77"/>
-      <c r="BX27" s="77"/>
+      <c r="BN27" s="79"/>
+      <c r="BO27" s="79"/>
+      <c r="BP27" s="79"/>
+      <c r="BQ27" s="79"/>
+      <c r="BR27" s="79"/>
+      <c r="BS27" s="79"/>
+      <c r="BT27" s="79"/>
+      <c r="BU27" s="79"/>
+      <c r="BV27" s="79"/>
+      <c r="BW27" s="79"/>
+      <c r="BX27" s="79"/>
       <c r="BY27" s="22"/>
       <c r="BZ27" s="22"/>
-      <c r="CA27" s="78"/>
-      <c r="CB27" s="78"/>
-      <c r="CC27" s="78"/>
-      <c r="CD27" s="79"/>
-      <c r="CE27" s="78"/>
-      <c r="CF27" s="78"/>
-      <c r="CG27" s="78"/>
-      <c r="CH27" s="79"/>
-      <c r="CI27" s="78"/>
-      <c r="CJ27" s="78"/>
-      <c r="CK27" s="78"/>
-      <c r="CL27" s="79"/>
+      <c r="CA27" s="80"/>
+      <c r="CB27" s="80"/>
+      <c r="CC27" s="80"/>
+      <c r="CD27" s="81"/>
+      <c r="CE27" s="80"/>
+      <c r="CF27" s="80"/>
+      <c r="CG27" s="80"/>
+      <c r="CH27" s="81"/>
+      <c r="CI27" s="80"/>
+      <c r="CJ27" s="80"/>
+      <c r="CK27" s="80"/>
+      <c r="CL27" s="81"/>
       <c r="CM27" s="22"/>
       <c r="CN27" s="22"/>
-      <c r="CO27" s="78"/>
-      <c r="CP27" s="79"/>
-      <c r="CQ27" s="78"/>
-      <c r="CR27" s="78"/>
-      <c r="CS27" s="78"/>
-      <c r="CT27" s="78"/>
-      <c r="CU27" s="79"/>
-      <c r="CV27" s="78"/>
-      <c r="CW27" s="78"/>
-      <c r="CX27" s="78"/>
+      <c r="CO27" s="80"/>
+      <c r="CP27" s="81"/>
+      <c r="CQ27" s="80"/>
+      <c r="CR27" s="80"/>
+      <c r="CS27" s="80"/>
+      <c r="CT27" s="80"/>
+      <c r="CU27" s="81"/>
+      <c r="CV27" s="80"/>
+      <c r="CW27" s="80"/>
+      <c r="CX27" s="80"/>
       <c r="CY27" s="22"/>
       <c r="CZ27" s="22"/>
-      <c r="DA27" s="78"/>
-      <c r="DB27" s="78"/>
-      <c r="DC27" s="78"/>
-      <c r="DD27" s="78"/>
-      <c r="DE27" s="79"/>
-      <c r="DF27" s="78"/>
-      <c r="DG27" s="79"/>
-      <c r="DH27" s="78"/>
-      <c r="DI27" s="78"/>
+      <c r="DA27" s="80"/>
+      <c r="DB27" s="80"/>
+      <c r="DC27" s="80"/>
+      <c r="DD27" s="80"/>
+      <c r="DE27" s="81"/>
+      <c r="DF27" s="80"/>
+      <c r="DG27" s="81"/>
+      <c r="DH27" s="80"/>
+      <c r="DI27" s="80"/>
     </row>
     <row r="28">
-      <c r="A28" s="71"/>
-      <c r="B28" s="72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="82" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="36"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="68"/>
       <c r="G28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
+      <c r="H28" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="78"/>
+      <c r="J28" s="78"/>
+      <c r="K28" s="78"/>
+      <c r="L28" s="78"/>
+      <c r="M28" s="78"/>
+      <c r="N28" s="78"/>
+      <c r="O28" s="78"/>
+      <c r="P28" s="78"/>
+      <c r="Q28" s="78"/>
+      <c r="R28" s="78"/>
+      <c r="S28" s="78"/>
+      <c r="T28" s="78"/>
       <c r="U28" s="22"/>
       <c r="V28" s="22"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
+      <c r="W28" s="78"/>
+      <c r="X28" s="78"/>
+      <c r="Y28" s="78"/>
+      <c r="Z28" s="78"/>
+      <c r="AA28" s="44"/>
+      <c r="AB28" s="78"/>
+      <c r="AC28" s="78"/>
+      <c r="AD28" s="78"/>
       <c r="AE28" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF28" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
+        <v>68</v>
+      </c>
+      <c r="AG28" s="78"/>
+      <c r="AH28" s="78"/>
       <c r="AI28" s="22"/>
       <c r="AJ28" s="22"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
+      <c r="AK28" s="78"/>
+      <c r="AL28" s="78"/>
+      <c r="AM28" s="78"/>
+      <c r="AN28" s="78"/>
+      <c r="AO28" s="78"/>
+      <c r="AP28" s="78"/>
+      <c r="AQ28" s="78"/>
+      <c r="AR28" s="78"/>
+      <c r="AS28" s="78"/>
+      <c r="AT28" s="78"/>
+      <c r="AU28" s="78"/>
+      <c r="AV28" s="78"/>
       <c r="AW28" s="22"/>
       <c r="AX28" s="22"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
+      <c r="AY28" s="78"/>
+      <c r="AZ28" s="78"/>
+      <c r="BA28" s="78"/>
+      <c r="BB28" s="78"/>
+      <c r="BC28" s="78"/>
+      <c r="BD28" s="78"/>
+      <c r="BE28" s="78"/>
+      <c r="BF28" s="78"/>
+      <c r="BG28" s="78"/>
+      <c r="BH28" s="78"/>
+      <c r="BI28" s="78"/>
+      <c r="BJ28" s="78"/>
       <c r="BK28" s="22"/>
       <c r="BL28" s="22"/>
-      <c r="BM28" s="76"/>
+      <c r="BM28" s="78"/>
       <c r="BN28" s="6">
         <v>44751.0</v>
       </c>
@@ -5013,7 +5074,7 @@
         <v>44755.0</v>
       </c>
       <c r="BS28" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BT28" s="6">
         <v>44757.0</v>
@@ -5032,178 +5093,178 @@
       </c>
       <c r="BY28" s="22"/>
       <c r="BZ28" s="22"/>
-      <c r="CA28" s="78">
+      <c r="CA28" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CB28" s="78">
+      <c r="CB28" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CC28" s="78">
+      <c r="CC28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CD28" s="79">
+      <c r="CD28" s="81">
         <v>44758.0</v>
       </c>
-      <c r="CE28" s="78">
+      <c r="CE28" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CF28" s="78">
+      <c r="CF28" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CG28" s="78">
+      <c r="CG28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CH28" s="79">
+      <c r="CH28" s="81">
         <v>44758.0</v>
       </c>
-      <c r="CI28" s="78">
+      <c r="CI28" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CJ28" s="78">
+      <c r="CJ28" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CK28" s="78">
+      <c r="CK28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CL28" s="79">
+      <c r="CL28" s="81">
         <v>44758.0</v>
       </c>
       <c r="CM28" s="22"/>
       <c r="CN28" s="22"/>
-      <c r="CO28" s="78">
+      <c r="CO28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CP28" s="79">
+      <c r="CP28" s="81">
         <v>44761.0</v>
       </c>
-      <c r="CQ28" s="78">
+      <c r="CQ28" s="80">
         <v>44758.0</v>
       </c>
-      <c r="CR28" s="78">
+      <c r="CR28" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CS28" s="78">
+      <c r="CS28" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CT28" s="78">
+      <c r="CT28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CU28" s="79">
+      <c r="CU28" s="81">
         <v>44761.0</v>
       </c>
-      <c r="CV28" s="78">
+      <c r="CV28" s="80">
         <v>44758.0</v>
       </c>
-      <c r="CW28" s="78">
+      <c r="CW28" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CX28" s="78">
+      <c r="CX28" s="80">
         <v>44760.0</v>
       </c>
       <c r="CY28" s="22"/>
       <c r="CZ28" s="22"/>
-      <c r="DA28" s="78">
+      <c r="DA28" s="80">
         <v>44758.0</v>
       </c>
-      <c r="DB28" s="78">
+      <c r="DB28" s="80">
         <v>44759.0</v>
       </c>
-      <c r="DC28" s="78">
+      <c r="DC28" s="80">
         <v>44760.0</v>
       </c>
-      <c r="DD28" s="78">
+      <c r="DD28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="DE28" s="79">
+      <c r="DE28" s="81">
         <v>44760.0</v>
       </c>
-      <c r="DF28" s="78">
+      <c r="DF28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="DG28" s="79">
+      <c r="DG28" s="81">
         <v>44760.0</v>
       </c>
-      <c r="DH28" s="78">
+      <c r="DH28" s="80">
         <v>44761.0</v>
       </c>
-      <c r="DI28" s="78">
+      <c r="DI28" s="80">
         <v>44762.0</v>
       </c>
     </row>
     <row r="29" ht="15.0" customHeight="1">
-      <c r="A29" s="73"/>
-      <c r="B29" s="73"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="75"/>
       <c r="C29" s="67"/>
       <c r="D29" s="67"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="68"/>
       <c r="G29" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="80"/>
-      <c r="S29" s="80"/>
-      <c r="T29" s="80"/>
+        <v>68</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
       <c r="U29" s="22"/>
       <c r="V29" s="22"/>
-      <c r="W29" s="80"/>
-      <c r="X29" s="80"/>
-      <c r="Y29" s="80"/>
-      <c r="Z29" s="80"/>
-      <c r="AA29" s="40"/>
-      <c r="AB29" s="40"/>
-      <c r="AC29" s="80"/>
-      <c r="AD29" s="80"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="82"/>
+      <c r="Y29" s="82"/>
+      <c r="Z29" s="82"/>
+      <c r="AA29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="82"/>
+      <c r="AD29" s="82"/>
       <c r="AE29" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF29" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG29" s="80"/>
-      <c r="AH29" s="80"/>
+        <v>68</v>
+      </c>
+      <c r="AG29" s="82"/>
+      <c r="AH29" s="82"/>
       <c r="AI29" s="22"/>
       <c r="AJ29" s="22"/>
-      <c r="AK29" s="80"/>
-      <c r="AL29" s="80"/>
-      <c r="AM29" s="80"/>
-      <c r="AN29" s="80"/>
-      <c r="AO29" s="80"/>
-      <c r="AP29" s="80"/>
-      <c r="AQ29" s="80"/>
-      <c r="AR29" s="80"/>
-      <c r="AS29" s="80"/>
-      <c r="AT29" s="80"/>
-      <c r="AU29" s="80"/>
-      <c r="AV29" s="80"/>
+      <c r="AK29" s="82"/>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="82"/>
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="82"/>
+      <c r="AP29" s="82"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="82"/>
+      <c r="AS29" s="82"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="82"/>
+      <c r="AV29" s="82"/>
       <c r="AW29" s="22"/>
       <c r="AX29" s="22"/>
-      <c r="AY29" s="80"/>
-      <c r="AZ29" s="80"/>
-      <c r="BA29" s="80"/>
-      <c r="BB29" s="80"/>
-      <c r="BC29" s="80"/>
-      <c r="BD29" s="80"/>
-      <c r="BE29" s="80"/>
-      <c r="BF29" s="80"/>
-      <c r="BG29" s="80"/>
-      <c r="BH29" s="80"/>
-      <c r="BI29" s="80"/>
-      <c r="BJ29" s="80"/>
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="82"/>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="82"/>
+      <c r="BC29" s="82"/>
+      <c r="BD29" s="82"/>
+      <c r="BE29" s="82"/>
+      <c r="BF29" s="82"/>
+      <c r="BG29" s="82"/>
+      <c r="BH29" s="82"/>
+      <c r="BI29" s="82"/>
+      <c r="BJ29" s="82"/>
       <c r="BK29" s="22"/>
       <c r="BL29" s="22"/>
-      <c r="BM29" s="80"/>
+      <c r="BM29" s="82"/>
       <c r="BN29" s="25"/>
       <c r="BO29" s="25"/>
       <c r="BP29" s="25"/>
@@ -5254,114 +5315,120 @@
       <c r="DI29" s="27"/>
     </row>
     <row r="30" ht="15.0" customHeight="1">
-      <c r="A30" s="73"/>
-      <c r="B30" s="73"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="75"/>
       <c r="C30" s="67"/>
       <c r="D30" s="67"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="68"/>
       <c r="G30" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="H30" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="76"/>
-      <c r="N30" s="76"/>
-      <c r="O30" s="76"/>
-      <c r="P30" s="76"/>
-      <c r="Q30" s="76"/>
-      <c r="R30" s="76"/>
-      <c r="S30" s="76"/>
-      <c r="T30" s="76"/>
+      <c r="H30" s="85" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="78"/>
+      <c r="J30" s="78"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="78"/>
+      <c r="M30" s="78"/>
+      <c r="N30" s="78"/>
+      <c r="O30" s="78"/>
+      <c r="P30" s="78"/>
+      <c r="Q30" s="78"/>
+      <c r="R30" s="78"/>
+      <c r="S30" s="78"/>
+      <c r="T30" s="78"/>
       <c r="U30" s="22"/>
       <c r="V30" s="22"/>
-      <c r="W30" s="76"/>
-      <c r="X30" s="76"/>
-      <c r="Y30" s="76"/>
-      <c r="Z30" s="76"/>
-      <c r="AA30" s="76"/>
-      <c r="AB30" s="43"/>
-      <c r="AC30" s="76"/>
-      <c r="AD30" s="76"/>
-      <c r="AE30" s="76"/>
-      <c r="AF30" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG30" s="76"/>
-      <c r="AH30" s="76"/>
+      <c r="W30" s="78"/>
+      <c r="X30" s="78"/>
+      <c r="Y30" s="78"/>
+      <c r="Z30" s="78"/>
+      <c r="AA30" s="78"/>
+      <c r="AB30" s="44"/>
+      <c r="AC30" s="78"/>
+      <c r="AD30" s="78"/>
+      <c r="AE30" s="78"/>
+      <c r="AF30" s="86" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG30" s="78"/>
+      <c r="AH30" s="78"/>
       <c r="AI30" s="22"/>
       <c r="AJ30" s="22"/>
-      <c r="AK30" s="76"/>
-      <c r="AL30" s="76"/>
-      <c r="AM30" s="76"/>
-      <c r="AN30" s="76"/>
-      <c r="AO30" s="76"/>
-      <c r="AP30" s="76"/>
-      <c r="AQ30" s="76"/>
-      <c r="AR30" s="76"/>
-      <c r="AS30" s="76"/>
-      <c r="AT30" s="76"/>
-      <c r="AU30" s="76"/>
-      <c r="AV30" s="76"/>
+      <c r="AK30" s="78"/>
+      <c r="AL30" s="78"/>
+      <c r="AM30" s="78"/>
+      <c r="AN30" s="78"/>
+      <c r="AO30" s="78"/>
+      <c r="AP30" s="78"/>
+      <c r="AQ30" s="78"/>
+      <c r="AR30" s="78"/>
+      <c r="AS30" s="78"/>
+      <c r="AT30" s="78"/>
+      <c r="AU30" s="78"/>
+      <c r="AV30" s="78"/>
       <c r="AW30" s="22"/>
       <c r="AX30" s="22"/>
-      <c r="AY30" s="76"/>
-      <c r="AZ30" s="76"/>
-      <c r="BA30" s="76"/>
-      <c r="BB30" s="76"/>
-      <c r="BC30" s="76"/>
-      <c r="BD30" s="76"/>
-      <c r="BE30" s="76"/>
-      <c r="BF30" s="76"/>
-      <c r="BG30" s="76"/>
-      <c r="BH30" s="76"/>
-      <c r="BI30" s="76"/>
-      <c r="BJ30" s="76"/>
+      <c r="AY30" s="78"/>
+      <c r="AZ30" s="78"/>
+      <c r="BA30" s="78"/>
+      <c r="BB30" s="78"/>
+      <c r="BC30" s="78"/>
+      <c r="BD30" s="78"/>
+      <c r="BE30" s="78"/>
+      <c r="BF30" s="78"/>
+      <c r="BG30" s="78"/>
+      <c r="BH30" s="78"/>
+      <c r="BI30" s="78"/>
+      <c r="BJ30" s="78"/>
       <c r="BK30" s="22"/>
       <c r="BL30" s="22"/>
-      <c r="BM30" s="76"/>
-      <c r="BN30" s="33"/>
-      <c r="BO30" s="33"/>
-      <c r="BP30" s="33"/>
-      <c r="BQ30" s="33"/>
-      <c r="BR30" s="33"/>
-      <c r="BS30" s="33"/>
-      <c r="BT30" s="33"/>
-      <c r="BU30" s="33"/>
-      <c r="BV30" s="33"/>
-      <c r="BW30" s="33"/>
-      <c r="BX30" s="33"/>
+      <c r="BM30" s="87"/>
+      <c r="BN30" s="88"/>
+      <c r="BO30" s="87"/>
+      <c r="BP30" s="87"/>
+      <c r="BQ30" s="87"/>
+      <c r="BR30" s="87"/>
+      <c r="BS30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="BT30" s="87"/>
+      <c r="BU30" s="87"/>
+      <c r="BV30" s="87"/>
+      <c r="BW30" s="87"/>
+      <c r="BX30" s="87"/>
       <c r="BY30" s="22"/>
       <c r="BZ30" s="22"/>
-      <c r="CA30" s="35"/>
-      <c r="CB30" s="35"/>
-      <c r="CC30" s="35"/>
-      <c r="CD30" s="32"/>
-      <c r="CE30" s="35"/>
-      <c r="CF30" s="35"/>
-      <c r="CG30" s="35"/>
-      <c r="CH30" s="32"/>
-      <c r="CI30" s="35"/>
-      <c r="CJ30" s="35"/>
-      <c r="CK30" s="35"/>
-      <c r="CL30" s="32"/>
+      <c r="CA30" s="87"/>
+      <c r="CB30" s="88"/>
+      <c r="CC30" s="87"/>
+      <c r="CD30" s="87"/>
+      <c r="CE30" s="87"/>
+      <c r="CF30" s="87"/>
+      <c r="CG30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="CH30" s="87"/>
+      <c r="CI30" s="87"/>
+      <c r="CJ30" s="87"/>
+      <c r="CK30" s="87"/>
+      <c r="CL30" s="87"/>
       <c r="CM30" s="22"/>
       <c r="CN30" s="22"/>
-      <c r="CO30" s="35"/>
-      <c r="CP30" s="32"/>
-      <c r="CQ30" s="35"/>
-      <c r="CR30" s="35"/>
-      <c r="CS30" s="35"/>
-      <c r="CT30" s="35"/>
-      <c r="CU30" s="32"/>
-      <c r="CV30" s="35"/>
-      <c r="CW30" s="35"/>
-      <c r="CX30" s="35"/>
+      <c r="CO30" s="87"/>
+      <c r="CP30" s="87"/>
+      <c r="CQ30" s="87"/>
+      <c r="CR30" s="87"/>
+      <c r="CS30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="CT30" s="87"/>
+      <c r="CU30" s="87"/>
+      <c r="CV30" s="87"/>
+      <c r="CW30" s="87"/>
+      <c r="CX30" s="87"/>
       <c r="CY30" s="22"/>
       <c r="CZ30" s="22"/>
       <c r="DA30" s="35"/>
@@ -5375,81 +5442,81 @@
       <c r="DI30" s="35"/>
     </row>
     <row r="31" ht="15.0" customHeight="1">
-      <c r="A31" s="73"/>
-      <c r="B31" s="73"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="75"/>
       <c r="C31" s="67"/>
       <c r="D31" s="67"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="68"/>
       <c r="G31" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="83" t="s">
-        <v>73</v>
-      </c>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
+        <v>74</v>
+      </c>
+      <c r="H31" s="85" t="s">
+        <v>75</v>
+      </c>
+      <c r="I31" s="82"/>
+      <c r="J31" s="82"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
       <c r="U31" s="22"/>
       <c r="V31" s="22"/>
-      <c r="W31" s="80"/>
-      <c r="X31" s="80"/>
-      <c r="Y31" s="80"/>
-      <c r="Z31" s="80"/>
-      <c r="AA31" s="80"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="80"/>
-      <c r="AD31" s="80"/>
-      <c r="AE31" s="80"/>
-      <c r="AF31" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG31" s="85" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH31" s="85" t="s">
-        <v>72</v>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG31" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH31" s="89" t="s">
+        <v>74</v>
       </c>
       <c r="AI31" s="22"/>
       <c r="AJ31" s="22"/>
-      <c r="AK31" s="80"/>
-      <c r="AL31" s="80"/>
-      <c r="AM31" s="80"/>
-      <c r="AN31" s="80"/>
-      <c r="AO31" s="80"/>
-      <c r="AP31" s="80"/>
-      <c r="AQ31" s="80"/>
-      <c r="AR31" s="80"/>
-      <c r="AS31" s="80"/>
-      <c r="AT31" s="80"/>
-      <c r="AU31" s="80"/>
-      <c r="AV31" s="80"/>
+      <c r="AK31" s="82"/>
+      <c r="AL31" s="82"/>
+      <c r="AM31" s="82"/>
+      <c r="AN31" s="82"/>
+      <c r="AO31" s="82"/>
+      <c r="AP31" s="82"/>
+      <c r="AQ31" s="82"/>
+      <c r="AR31" s="82"/>
+      <c r="AS31" s="82"/>
+      <c r="AT31" s="82"/>
+      <c r="AU31" s="82"/>
+      <c r="AV31" s="82"/>
       <c r="AW31" s="22"/>
       <c r="AX31" s="22"/>
-      <c r="AY31" s="80"/>
-      <c r="AZ31" s="80"/>
-      <c r="BA31" s="80"/>
-      <c r="BB31" s="80"/>
-      <c r="BC31" s="80"/>
-      <c r="BD31" s="80"/>
-      <c r="BE31" s="80"/>
-      <c r="BF31" s="80"/>
-      <c r="BG31" s="80"/>
-      <c r="BH31" s="80"/>
-      <c r="BI31" s="80"/>
-      <c r="BJ31" s="80"/>
+      <c r="AY31" s="82"/>
+      <c r="AZ31" s="82"/>
+      <c r="BA31" s="82"/>
+      <c r="BB31" s="82"/>
+      <c r="BC31" s="82"/>
+      <c r="BD31" s="82"/>
+      <c r="BE31" s="82"/>
+      <c r="BF31" s="82"/>
+      <c r="BG31" s="82"/>
+      <c r="BH31" s="82"/>
+      <c r="BI31" s="82"/>
+      <c r="BJ31" s="82"/>
       <c r="BK31" s="22"/>
       <c r="BL31" s="22"/>
-      <c r="BM31" s="80"/>
+      <c r="BM31" s="82"/>
       <c r="BN31" s="6">
         <v>44751.0</v>
       </c>
@@ -5483,323 +5550,323 @@
       </c>
       <c r="BY31" s="22"/>
       <c r="BZ31" s="22"/>
-      <c r="CA31" s="78">
+      <c r="CA31" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CB31" s="78">
+      <c r="CB31" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CC31" s="78">
+      <c r="CC31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CD31" s="79">
+      <c r="CD31" s="81">
         <v>44758.0</v>
       </c>
-      <c r="CE31" s="78">
+      <c r="CE31" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CF31" s="78">
+      <c r="CF31" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CG31" s="78">
+      <c r="CG31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CH31" s="79">
+      <c r="CH31" s="81">
         <v>44758.0</v>
       </c>
-      <c r="CI31" s="78">
+      <c r="CI31" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CJ31" s="78">
+      <c r="CJ31" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CK31" s="78">
+      <c r="CK31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CL31" s="79">
+      <c r="CL31" s="81">
         <v>44758.0</v>
       </c>
       <c r="CM31" s="22"/>
       <c r="CN31" s="22"/>
-      <c r="CO31" s="78">
+      <c r="CO31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CP31" s="79">
+      <c r="CP31" s="81">
         <v>44761.0</v>
       </c>
-      <c r="CQ31" s="78">
+      <c r="CQ31" s="80">
         <v>44758.0</v>
       </c>
-      <c r="CR31" s="78">
+      <c r="CR31" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CS31" s="78">
+      <c r="CS31" s="80">
         <v>44760.0</v>
       </c>
-      <c r="CT31" s="78">
+      <c r="CT31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="CU31" s="79">
+      <c r="CU31" s="81">
         <v>44761.0</v>
       </c>
-      <c r="CV31" s="78">
+      <c r="CV31" s="80">
         <v>44758.0</v>
       </c>
-      <c r="CW31" s="78">
+      <c r="CW31" s="80">
         <v>44759.0</v>
       </c>
-      <c r="CX31" s="78">
+      <c r="CX31" s="80">
         <v>44760.0</v>
       </c>
       <c r="CY31" s="22"/>
       <c r="CZ31" s="22"/>
-      <c r="DA31" s="78">
+      <c r="DA31" s="80">
         <v>44758.0</v>
       </c>
-      <c r="DB31" s="78">
+      <c r="DB31" s="80">
         <v>44759.0</v>
       </c>
-      <c r="DC31" s="78">
+      <c r="DC31" s="80">
         <v>44760.0</v>
       </c>
-      <c r="DD31" s="78">
+      <c r="DD31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="DE31" s="79">
+      <c r="DE31" s="81">
         <v>44760.0</v>
       </c>
-      <c r="DF31" s="78">
+      <c r="DF31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="DG31" s="79">
+      <c r="DG31" s="81">
         <v>44760.0</v>
       </c>
-      <c r="DH31" s="78">
+      <c r="DH31" s="80">
         <v>44761.0</v>
       </c>
-      <c r="DI31" s="78">
+      <c r="DI31" s="80">
         <v>44762.0</v>
       </c>
     </row>
     <row r="32" ht="15.0" customHeight="1">
-      <c r="A32" s="73"/>
-      <c r="B32" s="73"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="75"/>
       <c r="C32" s="67"/>
       <c r="D32" s="67"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="87"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="73"/>
-      <c r="K32" s="73"/>
-      <c r="L32" s="73"/>
-      <c r="M32" s="73"/>
-      <c r="N32" s="73"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
-      <c r="Q32" s="73"/>
-      <c r="R32" s="73"/>
-      <c r="S32" s="73"/>
-      <c r="T32" s="73"/>
-      <c r="U32" s="73"/>
-      <c r="V32" s="73"/>
-      <c r="W32" s="73"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="73"/>
-      <c r="AC32" s="73"/>
-      <c r="AD32" s="73"/>
-      <c r="AE32" s="73"/>
-      <c r="AF32" s="73"/>
-      <c r="AG32" s="73"/>
-      <c r="AH32" s="73"/>
-      <c r="AI32" s="73"/>
-      <c r="AJ32" s="73"/>
-      <c r="AK32" s="73"/>
-      <c r="AL32" s="73"/>
-      <c r="AM32" s="73"/>
-      <c r="AN32" s="73"/>
-      <c r="AO32" s="73"/>
-      <c r="AP32" s="73"/>
-      <c r="AQ32" s="73"/>
-      <c r="AR32" s="73"/>
-      <c r="AS32" s="73"/>
-      <c r="AT32" s="73"/>
-      <c r="AU32" s="73"/>
-      <c r="AV32" s="73"/>
-      <c r="AW32" s="73"/>
-      <c r="AX32" s="73"/>
-      <c r="AY32" s="73"/>
-      <c r="AZ32" s="73"/>
-      <c r="BA32" s="73"/>
-      <c r="BB32" s="73"/>
-      <c r="BC32" s="73"/>
-      <c r="BD32" s="73"/>
-      <c r="BE32" s="73"/>
-      <c r="BF32" s="73"/>
-      <c r="BG32" s="73"/>
-      <c r="BH32" s="73"/>
-      <c r="BI32" s="73"/>
-      <c r="BJ32" s="73"/>
-      <c r="BK32" s="73"/>
-      <c r="BL32" s="73"/>
-      <c r="BM32" s="73"/>
-      <c r="BN32" s="89"/>
-      <c r="BO32" s="89"/>
-      <c r="BP32" s="89"/>
-      <c r="BQ32" s="89"/>
+      <c r="E32" s="90"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="75"/>
+      <c r="O32" s="75"/>
+      <c r="P32" s="75"/>
+      <c r="Q32" s="75"/>
+      <c r="R32" s="75"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="75"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="75"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="75"/>
+      <c r="Y32" s="75"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="75"/>
+      <c r="AB32" s="75"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="75"/>
+      <c r="AE32" s="75"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="75"/>
+      <c r="AL32" s="75"/>
+      <c r="AM32" s="75"/>
+      <c r="AN32" s="75"/>
+      <c r="AO32" s="75"/>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="75"/>
+      <c r="AR32" s="75"/>
+      <c r="AS32" s="75"/>
+      <c r="AT32" s="75"/>
+      <c r="AU32" s="75"/>
+      <c r="AV32" s="75"/>
+      <c r="AW32" s="75"/>
+      <c r="AX32" s="75"/>
+      <c r="AY32" s="75"/>
+      <c r="AZ32" s="75"/>
+      <c r="BA32" s="75"/>
+      <c r="BB32" s="75"/>
+      <c r="BC32" s="75"/>
+      <c r="BD32" s="75"/>
+      <c r="BE32" s="75"/>
+      <c r="BF32" s="75"/>
+      <c r="BG32" s="75"/>
+      <c r="BH32" s="75"/>
+      <c r="BI32" s="75"/>
+      <c r="BJ32" s="75"/>
+      <c r="BK32" s="75"/>
+      <c r="BL32" s="75"/>
+      <c r="BM32" s="75"/>
+      <c r="BN32" s="93"/>
+      <c r="BO32" s="93"/>
+      <c r="BP32" s="93"/>
+      <c r="BQ32" s="93"/>
     </row>
     <row r="33" ht="15.0" customHeight="1">
-      <c r="C33" s="90"/>
-      <c r="D33" s="91" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="93"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="97"/>
     </row>
     <row r="34">
-      <c r="C34" s="90"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="96"/>
-      <c r="K34" s="97"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="99" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="99"/>
+      <c r="G34" s="99"/>
+      <c r="H34" s="100"/>
+      <c r="K34" s="101"/>
     </row>
     <row r="35">
-      <c r="C35" s="90"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="95" t="s">
-        <v>76</v>
-      </c>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="96"/>
-      <c r="I35" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="O35" s="99"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="99" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="99"/>
+      <c r="G35" s="99"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="O35" s="103"/>
     </row>
     <row r="36">
-      <c r="D36" s="100"/>
-      <c r="E36" s="95" t="s">
-        <v>78</v>
-      </c>
-      <c r="F36" s="95"/>
-      <c r="G36" s="95"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="101" t="s">
-        <v>79</v>
+      <c r="D36" s="104"/>
+      <c r="E36" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="105" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="37">
-      <c r="C37" s="95"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="96"/>
-      <c r="I37" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="J37" s="105">
+      <c r="C37" s="99"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="H37" s="100"/>
+      <c r="I37" s="108" t="s">
+        <v>83</v>
+      </c>
+      <c r="J37" s="109">
         <v>44796.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="C38" s="95"/>
-      <c r="D38" s="102"/>
-      <c r="E38" s="103" t="s">
-        <v>82</v>
-      </c>
-      <c r="H38" s="96"/>
-      <c r="I38" s="95" t="s">
-        <v>83</v>
-      </c>
-      <c r="J38" s="105">
+      <c r="C38" s="99"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="107" t="s">
+        <v>84</v>
+      </c>
+      <c r="H38" s="100"/>
+      <c r="I38" s="99" t="s">
+        <v>85</v>
+      </c>
+      <c r="J38" s="109">
         <v>44700.0</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" s="95"/>
-      <c r="D39" s="102"/>
-      <c r="E39" s="103"/>
-      <c r="H39" s="96"/>
-      <c r="I39" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="J39" s="106">
+      <c r="C39" s="99"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="107"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="99" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" s="110">
         <v>44707.0</v>
       </c>
-      <c r="K39" s="107"/>
+      <c r="K39" s="111"/>
     </row>
     <row r="40">
-      <c r="D40" s="100"/>
-      <c r="E40" s="89"/>
-      <c r="H40" s="96"/>
-      <c r="I40" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="J40" s="105">
+      <c r="D40" s="104"/>
+      <c r="E40" s="93"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="99" t="s">
+        <v>87</v>
+      </c>
+      <c r="J40" s="109">
         <v>44714.0</v>
       </c>
     </row>
     <row r="41">
-      <c r="D41" s="100"/>
-      <c r="E41" s="89"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="96"/>
-      <c r="I41" s="95" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="106">
+      <c r="D41" s="104"/>
+      <c r="E41" s="93"/>
+      <c r="F41" s="99"/>
+      <c r="G41" s="99"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="J41" s="110">
         <v>44721.0</v>
       </c>
     </row>
     <row r="42">
-      <c r="D42" s="100"/>
-      <c r="E42" s="89"/>
-      <c r="F42" s="95"/>
-      <c r="G42" s="95"/>
-      <c r="H42" s="96"/>
-      <c r="I42" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="J42" s="105">
+      <c r="D42" s="104"/>
+      <c r="E42" s="93"/>
+      <c r="F42" s="99"/>
+      <c r="G42" s="99"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="J42" s="109">
         <v>44728.0</v>
       </c>
     </row>
     <row r="43">
-      <c r="D43" s="100"/>
-      <c r="E43" s="89"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="96"/>
-      <c r="I43" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="J43" s="105">
+      <c r="D43" s="104"/>
+      <c r="E43" s="93"/>
+      <c r="F43" s="99"/>
+      <c r="G43" s="99"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="99" t="s">
+        <v>90</v>
+      </c>
+      <c r="J43" s="109">
         <v>44729.0</v>
       </c>
     </row>
     <row r="44">
-      <c r="D44" s="108"/>
-      <c r="E44" s="109"/>
-      <c r="F44" s="110"/>
-      <c r="G44" s="110"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="95" t="s">
-        <v>89</v>
-      </c>
-      <c r="J44" s="105">
+      <c r="D44" s="112"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="114"/>
+      <c r="G44" s="114"/>
+      <c r="H44" s="115"/>
+      <c r="I44" s="99" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" s="109">
         <v>44730.0</v>
       </c>
     </row>
@@ -5807,8 +5874,8 @@
   <mergeCells count="4">
     <mergeCell ref="E11:E19"/>
     <mergeCell ref="E20:E23"/>
+    <mergeCell ref="E24:E27"/>
     <mergeCell ref="E28:E31"/>
-    <mergeCell ref="E24:E27"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:D1 C16">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -5824,10 +5891,7 @@
     <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="today"/>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
-  <tableParts count="11">
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
+  <tableParts count="14">
     <tablePart r:id="rId16"/>
     <tablePart r:id="rId17"/>
     <tablePart r:id="rId18"/>
@@ -5836,6 +5900,12 @@
     <tablePart r:id="rId21"/>
     <tablePart r:id="rId22"/>
     <tablePart r:id="rId23"/>
+    <tablePart r:id="rId24"/>
+    <tablePart r:id="rId25"/>
+    <tablePart r:id="rId26"/>
+    <tablePart r:id="rId27"/>
+    <tablePart r:id="rId28"/>
+    <tablePart r:id="rId29"/>
   </tableParts>
 </worksheet>
 </file>